--- a/000.커리큐럼/HiM천호_2020풀스택1회차_주단위상세일정.xlsx
+++ b/000.커리큐럼/HiM천호_2020풀스택1회차_주단위상세일정.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="89">
   <si>
     <t>3주차</t>
   </si>
@@ -132,36 +132,15 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1차포폴 선정 분석/설계</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차포폴 분석/설계, UI디자인</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>PHP기본/SQL기본(로그인,회원가입,게시판)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Javascript 응용 / jQuery 기본</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>1차포폴 코딩, 테스트, 배포</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1차포폴 UI디자인, 코딩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>jQuery 기본  / SVG 애니메이션</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Javascript 기본,응용 / CSS 애니메이션, 
-미디어쿼리 / 그리드 레이아웃 연습</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -244,6 +223,388 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
+      <t>003. 화면설계</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+004. 화면구현</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>004. 화면구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+005. 통합구현</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>005. 통합구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+006.프로그래밍언어활용</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>006.프로그래밍언어활용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+007.응용SW기초기술활용</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>008.서버프로그램구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+009.애플리케이션설계</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>009.애플리케이션설계</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+010.인터페이스구현</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>010.인터페이스구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+011.SQL활용</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>011.SQL활용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+012.네트워크프로그래밍구현</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>012.네트워크프로그래밍구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+013.애플리케이션테스트수행</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>013.애플리케이션테스트수행</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+014.임베디드애플리케이션구현</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>014.임베디드애플리케이션구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+015.디바이스드라이버구현</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>016.펌웨어구현</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>015.디바이스드라이버구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+016.펌웨어구현</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차포폴 선정 분석/설계</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차포폴 분석/설계, UI디자인</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차포폴 UI디자인, 코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차포폴 코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차포폴 코딩, 테스트, 배포</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>html5기본연습</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>html5/css3 기본연습</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통 포트폴리오(캐릭터소개)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통 포트폴리오(캐릭터소개)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통 포트폴리오(극장예고편)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통 포트폴리오(개인인트로사이트)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>html5/css3 기본연습, CSS 애니메이션</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>html5/css3 응용연습, 해상도, 웹폰트, 애니메이션</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>html5/css3 응용연습, 서버업로드하기(FTP)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>jQuery 응용/Form관련코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>html5/css3 응용연습/Javascript 기본 
+ / CSS 애니메이션/ 그리드 레이아웃 연습</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Javascript 기본 / CSS 애니메이션, 
+미디어쿼리</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVG 애니메이션</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통 포트폴리오(개인인트로사이트)
+CGV응용사이트 제출(월)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>002. UI구현</t>
     </r>
     <r>
@@ -260,370 +621,29 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>003. 화면설계</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-004. 화면구현</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>004. 화면구현</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-005. 통합구현</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>005. 통합구현</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-006.프로그래밍언어활용</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>006.프로그래밍언어활용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-007.응용SW기초기술활용</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>008.서버프로그램구현</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-009.애플리케이션설계</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>009.애플리케이션설계</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-010.인터페이스구현</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>010.인터페이스구현</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-011.SQL활용</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>011.SQL활용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-012.네트워크프로그래밍구현</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>012.네트워크프로그래밍구현</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-013.애플리케이션테스트수행</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>013.애플리케이션테스트수행</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-014.임베디드애플리케이션구현</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>014.임베디드애플리케이션구현</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-015.디바이스드라이버구현</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>016.펌웨어구현</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>015.디바이스드라이버구현</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-016.펌웨어구현</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차포폴 선정 분석/설계</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차포폴 분석/설계, UI디자인</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차포폴 UI디자인, 코딩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차포폴 코딩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차포폴 코딩, 테스트, 배포</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>html5기본연습</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>html5/css3 기본연습</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Javascript 기본 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>공통 포트폴리오(캐릭터소개)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>공통 포트폴리오(캐릭터소개)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>공통 포트폴리오(극장예고편)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>공통 포트폴리오(개인인트로사이트)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>html5/css3 응용연습/Javascript 기본</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>html5/css3 기본연습, CSS 애니메이션</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>html5/css3 응용연습, 해상도, 웹폰트, 애니메이션</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>html5/css3 응용연습, 서버업로드하기(FTP)</t>
+    <t>jQuery 응용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차포폴 UI디자인, 코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차포폴 선정, 자료수집, 분석/설계, 와이어프레이밍</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차포폴 분석/설계, 프로토타이핑, UI디자인</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Javascript 기본,응용 / CSS 애니메이션, 
+미디어쿼리 / XD 프로토타이핑</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Javascript 기본,응용 / CSS 애니메이션, 
+미디어쿼리 / XD 프로토타이핑</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1017,7 +1037,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1063,9 +1083,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1147,35 +1164,44 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1502,7 +1528,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1521,337 +1547,337 @@
   <sheetData>
     <row r="1" spans="1:10" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:10" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="56"/>
+      <c r="B2" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="58"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" ht="34.5" customHeight="1" thickBot="1">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="21" t="s">
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="21" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="3" customFormat="1" ht="20.25">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="31">
         <v>44124</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="31">
         <v>44127</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F5" s="33">
         <f t="shared" ref="F5:F12" si="0">DAYS360(C5,E5)+1</f>
         <v>4</v>
       </c>
-      <c r="G5" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="37" t="s">
-        <v>74</v>
+      <c r="G5" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="36" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="24.95" customHeight="1">
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="46">
+      <c r="C6" s="43">
         <v>44130</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="43">
         <v>44134</v>
       </c>
-      <c r="F6" s="48">
+      <c r="F6" s="45">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G6" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" s="50">
+      <c r="G6" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="47">
         <v>44130</v>
       </c>
-      <c r="I6" s="51"/>
-      <c r="J6" s="52" t="s">
-        <v>75</v>
+      <c r="I6" s="48"/>
+      <c r="J6" s="49" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="24.95" customHeight="1">
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="46">
+      <c r="C7" s="43">
         <v>44137</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="43">
         <v>44141</v>
       </c>
-      <c r="F7" s="48">
+      <c r="F7" s="45">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G7" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" s="47"/>
-      <c r="I7" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="J7" s="52" t="s">
-        <v>75</v>
+      <c r="G7" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="44"/>
+      <c r="I7" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" s="49" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="24.95" customHeight="1">
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="46">
+      <c r="C8" s="43">
         <v>44144</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="46">
+      <c r="E8" s="43">
         <v>44148</v>
       </c>
-      <c r="F8" s="48">
+      <c r="F8" s="45">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G8" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="47"/>
-      <c r="I8" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="J8" s="52" t="s">
-        <v>82</v>
+      <c r="G8" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="44"/>
+      <c r="I8" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" s="49" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="24.95" customHeight="1">
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="46">
+      <c r="C9" s="43">
         <v>44151</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="46">
+      <c r="E9" s="43">
         <v>44155</v>
       </c>
-      <c r="F9" s="48">
+      <c r="F9" s="45">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G9" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="47"/>
-      <c r="I9" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="J9" s="52" t="s">
-        <v>83</v>
+      <c r="G9" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="44"/>
+      <c r="I9" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" s="49" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A10" s="12"/>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="39">
+      <c r="C10" s="43">
         <v>44158</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="43">
         <v>44162</v>
       </c>
-      <c r="F10" s="41">
+      <c r="F10" s="45">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G10" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="40"/>
-      <c r="I10" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="J10" s="44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="24.95" customHeight="1">
-      <c r="B11" s="11" t="s">
+      <c r="G10" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="44"/>
+      <c r="I10" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="J10" s="49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="33">
+      <c r="B11" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="43">
         <v>44165</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="43">
         <v>44169</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="45">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="24.95" customHeight="1">
-      <c r="B12" s="11" t="s">
+      <c r="G11" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="47"/>
+      <c r="I11" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11" s="52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="33">
+      <c r="B12" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="43">
         <v>44172</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="43">
         <v>44176</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="45">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" s="13">
+      <c r="G12" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" s="47">
         <v>44172</v>
       </c>
-      <c r="I12" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="24.95" customHeight="1">
-      <c r="B13" s="11" t="s">
+      <c r="I12" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="J12" s="52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="33">
+      <c r="B13" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="43">
         <v>44179</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="43">
         <v>44183</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="45">
         <f>DAYS360(C13,E13)+1</f>
         <v>5</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H13" s="13">
+      <c r="G13" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="47">
         <v>44179</v>
       </c>
-      <c r="I13" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="J13" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="24.95" customHeight="1">
-      <c r="B14" s="11" t="s">
+      <c r="I13" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" s="52" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="33">
+      <c r="A14" s="12"/>
+      <c r="B14" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="38">
         <v>44186</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="38">
         <v>44189</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="40">
         <f>DAYS360(C14,E14)+1</f>
         <v>4</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H14" s="13">
+      <c r="G14" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="50">
         <v>44186</v>
       </c>
-      <c r="I14" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>37</v>
+      <c r="I14" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="J14" s="51" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="24.95" customHeight="1">
@@ -1872,16 +1898,16 @@
         <v>4</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H15" s="13">
         <v>44194</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="24.95" customHeight="1">
@@ -1902,14 +1928,14 @@
         <v>5</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H16" s="13"/>
-      <c r="I16" s="17" t="s">
-        <v>42</v>
+      <c r="I16" s="16" t="s">
+        <v>37</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="24.95" customHeight="1">
@@ -1930,16 +1956,16 @@
         <v>5</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H17" s="13">
         <v>44209</v>
       </c>
-      <c r="I17" s="17" t="s">
-        <v>42</v>
+      <c r="I17" s="16" t="s">
+        <v>37</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="24.95" customHeight="1">
@@ -1959,17 +1985,17 @@
         <f t="shared" ref="F18:F27" si="1">DAYS360(C18,E18)+1</f>
         <v>5</v>
       </c>
-      <c r="G18" s="19" t="s">
-        <v>52</v>
+      <c r="G18" s="18" t="s">
+        <v>47</v>
       </c>
       <c r="H18" s="13">
         <v>44218</v>
       </c>
-      <c r="I18" s="17" t="s">
-        <v>42</v>
+      <c r="I18" s="16" t="s">
+        <v>37</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="24.95" customHeight="1">
@@ -1990,14 +2016,14 @@
         <v>5</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H19" s="13"/>
       <c r="I19" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="22.5">
@@ -2018,16 +2044,16 @@
         <v>5</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="H20" s="13">
         <v>44229</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="J20" s="18" t="s">
-        <v>47</v>
+        <v>63</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="24.95" customHeight="1">
@@ -2037,7 +2063,7 @@
       <c r="C21" s="6">
         <v>44235</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="15" t="s">
         <v>18</v>
       </c>
       <c r="E21" s="6">
@@ -2048,16 +2074,16 @@
         <v>3</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H21" s="13">
         <v>44236</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="24.95" customHeight="1">
@@ -2078,16 +2104,16 @@
         <v>5</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H22" s="13">
         <v>44245</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="24.95" customHeight="1">
@@ -2108,16 +2134,16 @@
         <v>5</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H23" s="13">
         <v>44251</v>
       </c>
-      <c r="I23" s="17" t="s">
-        <v>72</v>
+      <c r="I23" s="16" t="s">
+        <v>66</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="24.95" customHeight="1">
@@ -2138,16 +2164,16 @@
         <v>4</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H24" s="13">
         <v>44259</v>
       </c>
-      <c r="I24" s="17" t="s">
-        <v>72</v>
+      <c r="I24" s="16" t="s">
+        <v>66</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="24.95" customHeight="1">
@@ -2168,16 +2194,16 @@
         <v>5</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H25" s="13">
         <v>44266</v>
       </c>
-      <c r="I25" s="17" t="s">
-        <v>72</v>
+      <c r="I25" s="16" t="s">
+        <v>66</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="24.95" customHeight="1">
@@ -2198,16 +2224,16 @@
         <v>5</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H26" s="13">
         <v>44273</v>
       </c>
-      <c r="I26" s="17" t="s">
-        <v>72</v>
+      <c r="I26" s="16" t="s">
+        <v>66</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="24.95" customHeight="1">
@@ -2228,46 +2254,46 @@
         <v>5</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H27" s="13">
         <v>44280</v>
       </c>
-      <c r="I27" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="J27" s="18" t="s">
-        <v>47</v>
+      <c r="I27" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="J27" s="17" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="24">
+      <c r="C28" s="23">
         <v>44284</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="D28" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="24">
+      <c r="E28" s="23">
         <v>44287</v>
       </c>
-      <c r="F28" s="26">
+      <c r="F28" s="25">
         <f t="shared" ref="F28" si="2">DAYS360(C28,E28)+1</f>
         <v>3</v>
       </c>
-      <c r="G28" s="27" t="s">
+      <c r="G28" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="H28" s="27">
+        <v>44287</v>
+      </c>
+      <c r="I28" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="H28" s="28">
-        <v>44287</v>
-      </c>
-      <c r="I28" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="J28" s="30" t="s">
-        <v>36</v>
+      <c r="J28" s="29" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="17.25" thickBot="1">
@@ -2279,30 +2305,30 @@
       </c>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="58" t="s">
+      <c r="B30" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="60"/>
     </row>
     <row r="31" spans="2:10">
-      <c r="B31" s="58" t="s">
+      <c r="B31" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="5">
